--- a/Task-2.xlsx
+++ b/Task-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_ALL_TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9C1288-3BB7-43AF-BC23-ACA4F1295FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C421FB-6DC2-4308-828E-22452DEEDFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BA73A22A-2F40-492D-AA3E-13A1C8405688}"/>
   </bookViews>
@@ -752,7 +752,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
